--- a/vacancies_per_day/2022-11-05.xlsx
+++ b/vacancies_per_day/2022-11-05.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S252"/>
+  <dimension ref="A1:S253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16257,6 +16257,75 @@
         <v>0</v>
       </c>
     </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>1</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>71965070</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Помощник Дизайнера в офис</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Челябинск, Двинская улица, 13</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Alt Дизайн</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://hh.ru/vacancy/71965070 </t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://api.hh.ru/vacancies/71965070?host=hh.ru </t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>2022-11-05T12:21:33+0300</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>2022-11-05T12:21:33+0300</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L253" t="n">
+        <v>50000</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>Обязательно опыт работы в Archicad, Photoshop. Умение работать со слоями в Archicad. Умение работать быстро, внимательно и аккуратно.</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>Необходимо выполнять чертежи дизайн проекта (планы: ситуационный, монтажный, расстановки мебели и оборудования, привязки потолков, светильников, сантехнического оборудования и т.д).</t>
+        </is>
+      </c>
+      <c r="S253" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
